--- a/汇总表.xlsx
+++ b/汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\我的云端硬盘\shared\GithubRepo\NYUGameDesign2026\NYUGameDesign2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A251EEAD-F8E8-45A4-BA41-BCF4E9BB5C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0E25BE-E3DC-42B0-8743-4B7CB9DB92C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1995" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,46 @@
   </si>
   <si>
     <t>教indie/underground 音乐史 或者 电影镜头语言</t>
+  </si>
+  <si>
+    <t>Sallya蒋雨桐，叫我游天也可以。</t>
+  </si>
+  <si>
+    <t>INTJ，曾经变成过INFJ现在又变回来了哈哈哈哈，性格比较多面，对于感兴趣的事物会主动研究，不感兴趣的不会花费精力接触，过度社交后会感到疲劳需要独处，总而言之是个逻辑简单的普通人。</t>
+  </si>
+  <si>
+    <t>喜欢研究一些易学相关的东西，个人对于《梅花易数》了解相对多一点，算是个半吊子。本来去年就打算昄依道教的，但是因为疫情法会取消了，所以只能延后，目前可能算是将来时的道教居士吧？</t>
+  </si>
+  <si>
+    <t>究极跑团爱好者！尤其是COC（克苏鲁的呼唤），DND也会玩只是没什么经验，希望未来有机会和大家一起跑团！恐怖题材的密室和各种剧本杀也非常喜欢。</t>
+  </si>
+  <si>
+    <t>什么类型的游戏都会玩，玩得很杂，独立游戏和FPS偏多，对恐怖游戏非常感兴趣但没怎么玩过，很喜欢多人游戏但是之前一直找不到人玩，能来这个专业遇到更多喜欢玩游戏的人真是太好了。</t>
+  </si>
+  <si>
+    <t>脑叶公司，我非常喜欢怪谈题材的作品所以被深深的吸引了，玩的异常上瘾，后来又开始沉迷废墟图书馆hhh</t>
+  </si>
+  <si>
+    <t>因为喜欢研究各种各样的事所以能力很杂，被游戏作为输出媒介的互动性吸引了，发现游戏设计可以很好的融合自己的能力，所以果断地决定去做游戏（争取成为六边形战士）。</t>
+  </si>
+  <si>
+    <t>我的头像：王也，《一人之下》的角色，就心界而言是我非常崇敬的一个人物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖怪谈鉴赏？老实说我绝对不是教人的材料，大概也就是大家一起读各种怪谈故事的轻松课堂吧哈哈哈哈哈哈。</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam好友代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴彦哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -547,247 +587,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="30.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
+    <col min="3" max="12" width="30.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2">
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1">
+        <v>340451497</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>974847743</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="1">
+        <v>1011490915</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -796,12 +874,13 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -811,12 +890,13 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -826,12 +906,13 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -841,12 +922,13 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -856,12 +938,13 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -871,12 +954,13 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -886,12 +970,13 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -901,12 +986,13 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -916,12 +1002,13 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -931,12 +1018,13 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -946,12 +1034,13 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -961,12 +1050,13 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -976,12 +1066,13 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -991,12 +1082,13 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1006,6 +1098,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/汇总表.xlsx
+++ b/汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\我的云端硬盘\shared\GithubRepo\NYUGameDesign2026\NYUGameDesign2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0E25BE-E3DC-42B0-8743-4B7CB9DB92C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59351175-DDBA-476A-A00D-45747487DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="4155" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,16 +238,96 @@
     <t>恐怖怪谈鉴赏？老实说我绝对不是教人的材料，大概也就是大家一起读各种怪谈故事的轻松课堂吧哈哈哈哈哈哈。</t>
   </si>
   <si>
+    <t>steam好友代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章圣玥 Mary 不过我的朋友们一般都叫我玛丽</t>
+  </si>
+  <si>
+    <t>比较典型的ENFJ，会从帮助他人中获得力量</t>
+  </si>
+  <si>
+    <t>朋友们都说我给人感觉很像“辣妹与恐龙”这部番剧里的蓝恐龙</t>
+  </si>
+  <si>
+    <t>喜欢和朋友们一起玩剧本杀还有密室解密这种，跑团也一直很想尝试一次</t>
+  </si>
+  <si>
+    <t>Roguelike，卡牌，音游还有魂系游戏。不过我魂系游戏玩的很菜，基本上是喜欢看别人玩，最近在努力打空洞骑士。</t>
+  </si>
+  <si>
+    <t>星露谷物语。算不上是最喜欢，但是很容易一下子在里面花很久的时间。不过看着农场从杂草丛生到欣欣向荣非常有成就感。</t>
+  </si>
+  <si>
+    <t>选择游戏设计之前我尝试过很多别的专业，比如生物，经济，还有参加模联这种……不过最后还是发现游戏设计是我最喜欢，也最愿意为此付出很多时间和精力的专业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常喜欢极乐迪斯科里的金·曷城以及如龙系列里的真岛吾朗</t>
+  </si>
+  <si>
+    <t>或许是做手工娃娃？断断续续地有做一些小的玩偶，做玩偶的过程中会让我心静下来，不再那么浮躁。</t>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>steam好友代码</t>
+    <t>Tina，项楚婷，一般大家都叫我Tina啦。</t>
+  </si>
+  <si>
+    <t>超级无敌摆烂INFP，比较内向但和熟的人会很沙雕；爱做白日梦，就是那种坐在桌前能幻想完几部科幻大片+n种不同人生；拖延症晚期，但放心我只拖自己的东西 像是group project这种东西我绝对不会拖的。</t>
+  </si>
+  <si>
+    <t>可能是因为我本人比较矮的原因，又长得比较显小，马上五月份就高中毕业了，然而学校还会有人把我当成freshman lmao</t>
+  </si>
+  <si>
+    <t>本人很爱打麻将斗地主之类的桌游哈哈哈哈，然后也是恐怖密室逃脱的忠实爱好者（虽然很怂）</t>
+  </si>
+  <si>
+    <t>我觉得只要是好玩的游戏我都喜欢，但rpg，puzzle 和恐怖游戏我玩的比较多。其中玩的最多的应该是rpg类的像是巫师三，大表哥2，刺客信条，gta5之类的。就是对高自由开放世界毫无抵抗能力。</t>
+  </si>
+  <si>
+    <t>我其实很早就确定了要进游戏设计这一行，因为自己真的很喜欢画画所以想当原画师或者建模师之类的，然后我觉得能设计一个属于自己的游戏真的很有成就感！</t>
+  </si>
+  <si>
+    <t>除了之前说到的巫师三，我还是哈利波特系列的狂热爱好者！资深哈迷，我最喜欢的角色是邓布利多(我磕ggad)和小天狼星；就是说如果以后大家节日要交换礼物的话，送一切和哈利波特有关的给我都不会错的！</t>
+  </si>
+  <si>
+    <t>想开一门占卜课吧哈哈哈哈，整一个霍格沃茨分校！</t>
+  </si>
+  <si>
+    <t>最后在说一点我自己的爱好和特长吧！我其实会的不是很多 从小坚持到大的爱好和特长可能也只有画画这一个，虽然我不知道咱们这个专业美术这块占比是多少，但如果大家有这方面的问题都可以来问我！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴彦哲 Neil </t>
+  </si>
+  <si>
+    <t>测了三次都不一样，分别是主人公ENFJ，调停者INFP，守护者ISFJ。我觉得都代表了我性格里不同的部分吧：主人公的利他主义我觉得我是有的，比较容易在可以接受的范围内站在集体角度去考虑。倒不是说喜欢往自己脸上贴金，我是觉得有些时候与其大家不愉快不如自己牺牲一下。不过要在可以接受的范围内（）。调停者可能代表了我的交流方式？我是有时候会弄些可能旁边人都get不到点的话，然后我也很喜欢用些比喻什么的来调侃一些事。守护者代表了完美主义。不是真的追求完美，而是我对自己可能有比较高的要求。好处是可能我比较可靠？做项目什么的会花很多时间。坏处是我做东西比较慢。还有挺符合的就是被夸的时候会不知所措（）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴彦哲</t>
+    <t>说话喜欢在结尾打个括号表示小声bb。因为没什么安全感平时会健健身什么的。在无伤大雅的时候喜欢先骗一下再讲实话。画画在自学，比较捞。喜欢另辟蹊径。不是太喜欢当领导者，但是经常因为莫名其妙的原因被迫当。</t>
+  </si>
+  <si>
+    <t>百万美金和狼人杀这种可以演戏的桌游。因为是桌游，扯谎脸不红心不跳，感觉自己像影帝。</t>
+  </si>
+  <si>
+    <t>美少女养成（），魔女之泉那种。轻策略，像是彩六里面那种装修策略，（硬核的玩不来）。Roguelike也很喜欢。合作且有明确目的的生存游戏，很喜欢那种城市丧尸带剧情的生存，DL挺好，但是MC，方舟那种没有特别明确的目的的生存就没那么喜欢。</t>
+  </si>
+  <si>
+    <t>手游是明日方舟，不过一直挂着应该不算。端游是守望。不过我每个游戏玩的时间都不是很长，最长的守望也不过200个小时。一般喜欢的游戏也只会玩50小时到100小时左右。守望当时很喜欢的原因是鱼塘局不需要太多练习，很轻松，看谁不爽就换个技能略克制的去玩。当时就感觉生活节奏很快，静不下来，就玩玩这种。现在闲下来了就各种游戏都玩玩。</t>
+  </si>
+  <si>
+    <t>小时候就喜欢，一直给周围的同学设计小游戏，小学时候流行那个弹橡皮（我们那块是我带出来的，但是不同地方都有），加了点机制什么的，当时就很风靡。然后就是特别喜欢明日方舟和鹰角这个公司，以后学了游戏设计之后想去鹰角打工。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢惊悚乐园里的封不觉，高智商+幽默+不走寻常路，我可太喜欢了。</t>
+  </si>
+  <si>
+    <t>教自学的方法。我习惯就是不补课，剩好多钱呢。多的时间还可以在家玩游戏（）</t>
   </si>
 </sst>
 </file>
@@ -589,21 +669,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
     <col min="3" max="12" width="30.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2">
         <v>1</v>
@@ -640,7 +720,9 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>850847279</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
@@ -853,10 +935,10 @@
         <v>66</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -864,48 +946,102 @@
         <v>1011490915</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">

--- a/汇总表.xlsx
+++ b/汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\我的云端硬盘\shared\GithubRepo\NYUGameDesign2026\NYUGameDesign2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59351175-DDBA-476A-A00D-45747487DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07396488-FD40-47BA-901E-468A62A325B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="4155" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="4170" windowWidth="28785" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,73 @@
   </si>
   <si>
     <t>教自学的方法。我习惯就是不补课，剩好多钱呢。多的时间还可以在家玩游戏（）</t>
+  </si>
+  <si>
+    <t>邱昕贝 贝贝，猫猫，贝猫</t>
+  </si>
+  <si>
+    <t>INFP 其实不关心这个人格。来者不拒 欢迎找我玩捏 很怕没人找我玩 会emo的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以小小的伪音一下 虽然是女伪女。喜欢给朋友起很多名字。在朋友面前会犯病。我绝对是这个群里 猫 图 最 多 的人 </t>
+  </si>
+  <si>
+    <t>什 么 都 玩。只要有人和我一起玩 我就来者不拒。最近在ff14</t>
+  </si>
+  <si>
+    <t>羽毛球 健身 睡觉。其实都行 有人和我玩我都玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是（风暴英雄。或者ow。还行 主要是之前有车队一起玩 现在大家也不怎么一起玩了。我玩游戏很大一部分是社交</t>
+  </si>
+  <si>
+    <t>想不出还有什么对我感兴趣了，就在本科的时候试试看吧。不过也还在犹豫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA厨 </t>
+  </si>
+  <si>
+    <t>猫猫课 关于猫猫的课</t>
+  </si>
+  <si>
+    <t>（呜呜想让xdm主动加我好友 社恐人诚惶诚恐拉不下脸</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何雨晨 lexi  性别女</t>
+  </si>
+  <si>
+    <t>我看起来貌似很友善的样子 有时候看起来很一丝丝怪异但实际上很好相处应该</t>
+  </si>
+  <si>
+    <t>托福冲刺的时间 考的其实稀烂 就是有一次运气很好就够用来申请了 我真的配来这里吗哈哈哈</t>
+  </si>
+  <si>
+    <t>初中下课和午休会和同学在沙发围着玩uno还挺开心 但是就是瞎玩玩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我喜欢大型开放世界 角色扮演？俗称旅游模拟器的游戏 </t>
+  </si>
+  <si>
+    <t>我的大部分游戏都会在100小时内结束，算不上有很喜欢的。硬要说的话王者荣耀时间很长 但是 maybe我脾气很好理解不了，大家有时候都在努力玩，总有人骂骂咧咧我就被气退了。</t>
+  </si>
+  <si>
+    <t>我是一个卑微的画画人…一直准备去艺术学校。nyu竟然收留我了（而且近些年只能画画就没什么竞争力 卷不过了）</t>
+  </si>
+  <si>
+    <t>喜欢一切发自内心善意的角色</t>
+  </si>
+  <si>
+    <t>作为gap student，并不如大佬厉害，对于自己的大学毕业 和以后找工作 我不是很有信心 :-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>live2d吧，虽然我不会使（但是二次元动起来很有趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -669,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -972,7 +1039,9 @@
       <c r="K8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1042,39 +1111,81 @@
       <c r="K10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">

--- a/汇总表.xlsx
+++ b/汇总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\我的云端硬盘\shared\GithubRepo\NYUGameDesign2026\NYUGameDesign2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07396488-FD40-47BA-901E-468A62A325B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D9780-C1C5-42DF-B3D9-B8AFB613AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3645" yWindow="4170" windowWidth="28785" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -935,7 +935,9 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>1061126098</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>

--- a/汇总表.xlsx
+++ b/汇总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\我的云端硬盘\shared\GithubRepo\NYUGameDesign2026\NYUGameDesign2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D9780-C1C5-42DF-B3D9-B8AFB613AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9040752-6569-4FF1-8C5F-7159DBC90382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3645" yWindow="4170" windowWidth="28785" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,37 @@
   <si>
     <t>live2d吧，虽然我不会使（但是二次元动起来很有趣</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">石蕙铭 Ashley </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">infp 很好相处 有点点社恐 很怕尴尬 </t>
+  </si>
+  <si>
+    <t>我本来已经在ca提交了nyu的ed1，后来又发邮件改成了ed2。本来申请了waive语言 又发邮件去补交了。喜欢3D建模 做动画（但是没怎么学过画画 感觉画的也一般般）。朋友们都觉得我挺理工的 我也蛮喜欢工程类的但是其实我数学和写代码都不太厉害。喜欢看烘焙视频但不太会做饭。对于游戏 典型的又菜又爱玩的类型</t>
+  </si>
+  <si>
+    <t>斗地主 大富翁 uno 狼人杀 卡牌游戏都挺喜欢的（主要是大家在一起玩就很开心很有氛围感）小时候一直学围棋 现在有时间也会陪我爸下棋 高中也会跟同学玩玩象棋。忠实的乐高玩家 也是小时候就开始玩了（曾经也一度想过学建筑）运动的话 在篮球校队混了四年 最近迷上了滑雪！也算刚入门（希望可以找到有一起的纽约雪友哈哈哈）</t>
+  </si>
+  <si>
+    <t>FPS，RTS，解密，派对，etc. 我最喜欢的是创造类的游戏 像mc 每次自己建出东西都很有成就感（这可能是为什么我这么喜欢建模）也比较喜欢画风好的游戏哈哈哈哈哈 看着舒服！解密也蛮喜欢的！</t>
+  </si>
+  <si>
+    <t>其实玩的最久的应该就是王者和mc了 从小学初中就开始 玩的人多 为了社交就一直断断续续的有跟朋友一起打。但是其实我还是蛮喜欢尝试新的东西的 （所以大家有好玩的可以多给我推荐推荐）</t>
+  </si>
+  <si>
+    <t>家里很希望我学理工科计算机什么的，但是我一直比较喜欢艺术 就选了一个交叉专业！后来发现自己做出东西的时候还蛮有成就感的</t>
+  </si>
+  <si>
+    <t>nana 太酷了好喜欢</t>
+  </si>
+  <si>
+    <t>占卜或者算命吧哈哈哈哈哈我还挺相信玄学的</t>
+  </si>
+  <si>
+    <t>我有一点点社恐！也蛮好相处的！很希望跟大家成为好朋友呀，也很喜欢参加各种活动！btw我第一年住宿舍（填的first choice是founder）希望能找到可以一起去上课的友友</t>
   </si>
 </sst>
 </file>
@@ -736,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1189,21 +1220,41 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
